--- a/biology/Zoologie/Canard_à_bosse/Canard_à_bosse.xlsx
+++ b/biology/Zoologie/Canard_à_bosse/Canard_à_bosse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_bosse</t>
+          <t>Canard_à_bosse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sarkidiornis melanotos
 Le Canard à bosse (Sarkidiornis melanotos), aussi appelé Sarcidiorne à bosse, Canard-à-bosse bronzé ou encore Canard casqué, est une espèce de canards de la famille des Anatidés apparenté aux tadornes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_bosse</t>
+          <t>Canard_à_bosse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce gros canard mesure entre 56 et 76 cm, la tête et le haut du cou sont blancs pointillés de noir, le bas du cou et le ventre sont blancs, les flancs sont gris ou noirs selon les sous-espèces et le dessus du corps est noir avec des reflets bleus, verts et bronze.
 Le mâle a en outre une caroncule noire sur le bec.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_bosse</t>
+          <t>Canard_à_bosse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en Amérique du sud tropicale (principalement dans le bassin amazonien), en Afrique subsaharienne y compris Madagascar, en Inde et dans le sud-est de l'Asie.
 Le Canard à bosse est un oiseau des lacs et des marais des régions faiblement boisées. Il migre sur des distances longue mais reste en zone tropicale.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_bosse</t>
+          <t>Canard_à_bosse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce sociable qui vit en groupes d'une trentaine d'oiseaux. La reproduction a lieu pendant la saison des pluies, les mâles s'accouplent parfois avec plusieurs femelles.
 Le nid est généralement placé dans un trou d'arbre.
@@ -591,7 +609,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_bosse</t>
+          <t>Canard_à_bosse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -609,7 +627,9 @@
           <t>Populations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La population est comprise entre 190 000 et 730 000 individus, l'espèce n'est pas menacée.
 </t>
@@ -622,7 +642,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Canard_%C3%A0_bosse</t>
+          <t>Canard_à_bosse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -640,7 +660,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
